--- a/src/resource/account/account-sample.xlsx
+++ b/src/resource/account/account-sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="974">
   <si>
     <t>流动资产</t>
   </si>
@@ -976,7 +976,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -986,7 +986,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,23 +2908,281 @@
   <si>
     <t>其他负债增加流入的现金</t>
   </si>
+  <si>
+    <t>收回的已于以前年度核销的贷款及应收款项</t>
+  </si>
+  <si>
+    <t>其他应付暂收款减少流出的现金</t>
+  </si>
+  <si>
+    <t>处置抵债资产收到的现金</t>
+  </si>
+  <si>
+    <t>收到其他与经营活动有关的现金</t>
+  </si>
+  <si>
+    <t>其中:存放中央银行</t>
+  </si>
+  <si>
+    <t>存放同业及其他机构存款</t>
+  </si>
+  <si>
+    <t>拆出资金净现金流出</t>
+  </si>
+  <si>
+    <t>偿还中央银行借款(向中央银行借款净减少额)</t>
+  </si>
+  <si>
+    <t>支付的存款</t>
+  </si>
+  <si>
+    <t>减少同业及其他金融机构存放净额</t>
+  </si>
+  <si>
+    <t>偿还同业及其他金融机构拆入净额</t>
+  </si>
+  <si>
+    <t>偿还卖出回购款项净额</t>
+  </si>
+  <si>
+    <t>证券投资支出的现金</t>
+  </si>
+  <si>
+    <t>支付买入返售款项净额</t>
+  </si>
+  <si>
+    <t>处置可供出售金融资产净减少额</t>
+  </si>
+  <si>
+    <t>其中:支付的利息</t>
+  </si>
+  <si>
+    <t>手续费支出支付的现金</t>
+  </si>
+  <si>
+    <t>以现金支付的营业费用</t>
+  </si>
+  <si>
+    <t>与金融机构往来支出的现金净额</t>
+  </si>
+  <si>
+    <t>贴现支付的现金</t>
+  </si>
+  <si>
+    <t>已核销呆账贷款及利息收回</t>
+  </si>
+  <si>
+    <t>委托及代理业务减少额</t>
+  </si>
+  <si>
+    <t>贵金属现金流出</t>
+  </si>
+  <si>
+    <t>借入其他资金净减少额</t>
+  </si>
+  <si>
+    <t>其他资产减少支出的现金</t>
+  </si>
+  <si>
+    <t>其他应收暂付款减少收回的现金</t>
+  </si>
+  <si>
+    <t>支付其他与经营活动有关的现金</t>
+  </si>
+  <si>
+    <t>收回投资收到的现金</t>
+  </si>
+  <si>
+    <t>取得投资收益收到的现金</t>
+  </si>
+  <si>
+    <t>其中:分得股利或利润所收到的现金</t>
+  </si>
+  <si>
+    <t>取得债券利息收入收到的现金</t>
+  </si>
+  <si>
+    <t>处置固定资产、无形资产及其他资产而收到的现金</t>
+  </si>
+  <si>
+    <t>取得子公司及其他营业单位所收到的现金净额</t>
+  </si>
+  <si>
+    <t>收到其他与投资活动有关的现金</t>
+  </si>
+  <si>
+    <t>投资支付的现金</t>
+  </si>
+  <si>
+    <t>其中:权益性投资增加支付的现金</t>
+  </si>
+  <si>
+    <t>债券投资所支付的现金</t>
+  </si>
+  <si>
+    <t>购买子公司、联营企业及合营企业投资所支付的现金净额</t>
+  </si>
+  <si>
+    <t>增加在建工程所支付的现金</t>
+  </si>
+  <si>
+    <t>购建固定资产、无形资产和其他长期资产支付的现金</t>
+  </si>
+  <si>
+    <t>吸收投资所收到的现金</t>
+  </si>
+  <si>
+    <t>发行证券化资产所吸收的现金</t>
+  </si>
+  <si>
+    <t>其中:发行次级债券收到的现金</t>
+  </si>
+  <si>
+    <t>增加股本所收到的现金</t>
+  </si>
+  <si>
+    <t>偿还债务所支付的现金</t>
+  </si>
+  <si>
+    <t>分配股利、利润或偿付利息支付的现金</t>
+  </si>
+  <si>
+    <t>支付新股发行费用</t>
+  </si>
+  <si>
+    <t>四、汇率变动对现金及现金等价物的影响</t>
+  </si>
+  <si>
+    <t>五、现金及现金等价物净增加额</t>
+  </si>
+  <si>
+    <t>加:期初现金及现金等价物余额</t>
+  </si>
+  <si>
+    <t>六、期末现金及现金等价物余额</t>
+  </si>
+  <si>
+    <t>加:少数股东收益</t>
+  </si>
+  <si>
+    <t>计提的资产减值准备</t>
+  </si>
+  <si>
+    <t>其中：计提的坏账准备</t>
+  </si>
+  <si>
+    <t>计提的贷款损失准备</t>
+  </si>
+  <si>
+    <t>冲回存放同业减值准备</t>
+  </si>
+  <si>
+    <t>固定资产折旧、油气资产折耗、生产性生物资产折旧</t>
+  </si>
+  <si>
+    <t>投资性房地产折旧</t>
+  </si>
+  <si>
+    <t>无形资产、递延资产及其他资产的摊销</t>
+  </si>
+  <si>
+    <t>其中:无形资产摊销</t>
+  </si>
+  <si>
+    <t>长期资产摊销</t>
+  </si>
+  <si>
+    <t>处置固定资产、无形资产和其他长期产的损失/(收益)</t>
+  </si>
+  <si>
+    <t>处置投资性房地产的损失/(收益)</t>
+  </si>
+  <si>
+    <t>投资损失(减:收益)</t>
+  </si>
+  <si>
+    <t>公允价值变动(收益)/损失</t>
+  </si>
+  <si>
+    <t>汇兑损益</t>
+  </si>
+  <si>
+    <t>衍生金融工具交易净损益</t>
+  </si>
+  <si>
+    <t>折现回拔(减值资产利息冲转)</t>
+  </si>
+  <si>
+    <t>贷款的减少</t>
+  </si>
+  <si>
+    <t>存款的增加</t>
+  </si>
+  <si>
+    <t>拆借款项的净增</t>
+  </si>
+  <si>
+    <t>金融性资产的减少</t>
+  </si>
+  <si>
+    <t>预计负债的增加</t>
+  </si>
+  <si>
+    <t>收到已核销款项</t>
+  </si>
+  <si>
+    <t>递延所得税资产的减少</t>
+  </si>
+  <si>
+    <t>递延所得税负债的增加</t>
+  </si>
+  <si>
+    <t>经营性应收项目的增加</t>
+  </si>
+  <si>
+    <t>经营性其他资产的减少</t>
+  </si>
+  <si>
+    <t>经营性其他负债的增加</t>
+  </si>
+  <si>
+    <t>经营活动现金流量净额</t>
+  </si>
+  <si>
+    <t>以固定资产偿还债务</t>
+  </si>
+  <si>
+    <t>以投资偿还债务</t>
+  </si>
+  <si>
+    <t>以固定资产进行投资</t>
+  </si>
+  <si>
+    <t>其他不涉及现金收支的投资和筹资活动金额</t>
+  </si>
+  <si>
+    <t>减:现金的期初余额</t>
+  </si>
+  <si>
+    <t>减：现金等价物的期初余额</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2945,7 +3203,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2978,13 +3236,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3097,6 +3355,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3109,17 +3374,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3132,7 +3390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3206,6 +3464,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3240,6 +3499,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3415,20 +3675,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.875" customWidth="1"/>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3476,18 +3736,18 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
@@ -3520,7 +3780,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>785</v>
       </c>
       <c r="D5" s="3"/>
@@ -3560,7 +3820,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>786</v>
       </c>
       <c r="D7" s="5"/>
@@ -3571,7 +3831,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>787</v>
       </c>
       <c r="D8" s="5"/>
@@ -3611,7 +3871,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>788</v>
       </c>
       <c r="D10" s="3"/>
@@ -3622,7 +3882,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>789</v>
       </c>
       <c r="D11" s="3"/>
@@ -3633,7 +3893,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>790</v>
       </c>
       <c r="D12" s="3"/>
@@ -3644,7 +3904,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="26" t="s">
         <v>791</v>
       </c>
       <c r="D13" s="3"/>
@@ -3655,7 +3915,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="26" t="s">
         <v>792</v>
       </c>
       <c r="D14" s="3"/>
@@ -3724,7 +3984,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="3"/>
@@ -3735,7 +3995,7 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="26" t="s">
         <v>793</v>
       </c>
       <c r="D18" s="3"/>
@@ -3746,7 +4006,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="26" t="s">
         <v>794</v>
       </c>
       <c r="D19" s="3"/>
@@ -3989,7 +4249,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="26" t="s">
         <v>797</v>
       </c>
       <c r="D28" s="3"/>
@@ -4348,18 +4608,18 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="28" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9">
@@ -4530,7 +4790,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="26" t="s">
         <v>798</v>
       </c>
       <c r="D49" s="3"/>
@@ -4599,7 +4859,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="26" t="s">
         <v>799</v>
       </c>
       <c r="D52" s="3"/>
@@ -5114,7 +5374,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="26" t="s">
         <v>804</v>
       </c>
       <c r="D71" s="5"/>
@@ -5125,7 +5385,7 @@
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="26" t="s">
         <v>801</v>
       </c>
       <c r="D72" s="5"/>
@@ -5136,7 +5396,7 @@
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="26" t="s">
         <v>802</v>
       </c>
       <c r="D73" s="5"/>
@@ -5147,7 +5407,7 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="26" t="s">
         <v>803</v>
       </c>
       <c r="D74" s="5"/>
@@ -5187,7 +5447,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="26" t="s">
         <v>805</v>
       </c>
       <c r="D76" s="3"/>
@@ -5256,18 +5516,18 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="28" t="s">
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9">
@@ -5329,7 +5589,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="26" t="s">
         <v>806</v>
       </c>
       <c r="D82" s="5"/>
@@ -5340,7 +5600,7 @@
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="26" t="s">
         <v>807</v>
       </c>
       <c r="D83" s="5"/>
@@ -5351,7 +5611,7 @@
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="26" t="s">
         <v>808</v>
       </c>
       <c r="D84" s="5"/>
@@ -5420,7 +5680,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="26" t="s">
         <v>809</v>
       </c>
       <c r="D87" s="5"/>
@@ -5431,7 +5691,7 @@
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="26" t="s">
         <v>810</v>
       </c>
       <c r="D88" s="5"/>
@@ -5500,7 +5760,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="26" t="s">
         <v>811</v>
       </c>
       <c r="D91" s="5"/>
@@ -5627,7 +5887,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="26" t="s">
         <v>812</v>
       </c>
       <c r="D96" s="5"/>
@@ -5638,7 +5898,7 @@
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="26" t="s">
         <v>813</v>
       </c>
       <c r="D97" s="5"/>
@@ -5649,7 +5909,7 @@
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="26" t="s">
         <v>814</v>
       </c>
       <c r="D98" s="5"/>
@@ -5718,7 +5978,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="26" t="s">
         <v>817</v>
       </c>
       <c r="D101" s="5"/>
@@ -5961,7 +6221,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="26" t="s">
         <v>815</v>
       </c>
       <c r="D110" s="5"/>
@@ -5972,7 +6232,7 @@
       <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="26" t="s">
         <v>816</v>
       </c>
       <c r="D111" s="5"/>
@@ -5983,7 +6243,7 @@
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="26" t="s">
         <v>819</v>
       </c>
       <c r="D112" s="5"/>
@@ -5994,7 +6254,7 @@
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="26" t="s">
         <v>236</v>
       </c>
       <c r="D113" s="5"/>
@@ -6062,7 +6322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="14.25">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>79</v>
       </c>
@@ -6353,18 +6613,18 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="26" t="s">
+      <c r="A126" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="26" t="s">
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9">
@@ -6426,7 +6686,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="26" t="s">
         <v>820</v>
       </c>
       <c r="C129" s="4"/>
@@ -6641,18 +6901,18 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="26" t="s">
+      <c r="A137" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="26" t="s">
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9">
@@ -6685,7 +6945,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="26" t="s">
         <v>821</v>
       </c>
       <c r="C139" s="6"/>
@@ -6726,7 +6986,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="30" t="s">
+      <c r="A141" s="26" t="s">
         <v>822</v>
       </c>
       <c r="C141" s="4"/>
@@ -6738,7 +6998,7 @@
       <c r="I141" s="4"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="27" t="s">
         <v>823</v>
       </c>
       <c r="C142" s="4"/>
@@ -6750,7 +7010,7 @@
       <c r="I142" s="4"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="30" t="s">
+      <c r="A143" s="26" t="s">
         <v>824</v>
       </c>
       <c r="C143" s="4"/>
@@ -6878,7 +7138,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="26" t="s">
         <v>825</v>
       </c>
       <c r="C148" s="4"/>
@@ -6977,7 +7237,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="26" t="s">
         <v>826</v>
       </c>
       <c r="C152" s="8"/>
@@ -6988,7 +7248,7 @@
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
     </row>
-    <row r="153" spans="1:9" ht="14.25">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>109</v>
       </c>
@@ -7017,8 +7277,8 @@
         <v>852.57</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="14.25">
-      <c r="A154" s="30" t="s">
+    <row r="154" spans="1:9">
+      <c r="A154" s="26" t="s">
         <v>827</v>
       </c>
       <c r="B154" s="19"/>
@@ -7030,7 +7290,7 @@
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
     </row>
-    <row r="155" spans="1:9" ht="14.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -7059,8 +7319,8 @@
         <v>74245.8</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="14.25">
-      <c r="A156" s="30" t="s">
+    <row r="156" spans="1:9">
+      <c r="A156" s="26" t="s">
         <v>828</v>
       </c>
       <c r="B156" s="19"/>
@@ -7131,7 +7391,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="30" t="s">
+      <c r="A159" s="26" t="s">
         <v>829</v>
       </c>
       <c r="C159" s="6"/>
@@ -7142,7 +7402,7 @@
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" ht="27">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>113</v>
       </c>
@@ -7172,7 +7432,7 @@
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="30" t="s">
+      <c r="A161" s="26" t="s">
         <v>830</v>
       </c>
     </row>
@@ -7451,18 +7711,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7495,21 +7755,21 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>831</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>832</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>833</v>
       </c>
       <c r="B6" s="11"/>
@@ -7529,7 +7789,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -7552,12 +7812,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>834</v>
       </c>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -7568,71 +7828,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="26" t="s">
         <v>835</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="26" t="s">
         <v>836</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="26" t="s">
         <v>837</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="26" t="s">
         <v>838</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="26" t="s">
         <v>839</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="1:3" ht="14.25">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="26" t="s">
         <v>840</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="14.25">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="26" t="s">
         <v>143</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="1:3" ht="14.25">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="26" t="s">
         <v>841</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="1:3" ht="14.25">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="26" t="s">
         <v>842</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" ht="14.25">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="26" t="s">
         <v>843</v>
       </c>
       <c r="B21" s="19"/>
@@ -7672,7 +7932,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="26" t="s">
         <v>844</v>
       </c>
       <c r="B25" s="14"/>
@@ -7733,7 +7993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -7766,7 +8026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -7777,7 +8037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -7800,7 +8060,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="26" t="s">
         <v>848</v>
       </c>
       <c r="C37" s="12"/>
@@ -7817,12 +8077,12 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="26" t="s">
         <v>845</v>
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3" ht="14.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -7867,18 +8127,18 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="26" t="s">
         <v>846</v>
       </c>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="26" t="s">
         <v>847</v>
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3" ht="14.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -7889,7 +8149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -7900,7 +8160,7 @@
         <v>618.82000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -7911,7 +8171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -7922,7 +8182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -7933,7 +8193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -7944,7 +8204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -7955,7 +8215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -7989,7 +8249,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="26" t="s">
         <v>849</v>
       </c>
       <c r="C56" s="7"/>
@@ -8006,12 +8266,12 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="26" t="s">
         <v>850</v>
       </c>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" ht="14.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>151</v>
       </c>
@@ -8034,7 +8294,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="26" t="s">
         <v>851</v>
       </c>
       <c r="C61" s="6"/>
@@ -8051,7 +8311,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="26" t="s">
         <v>852</v>
       </c>
       <c r="C63" s="7"/>
@@ -8090,7 +8350,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="26" t="s">
         <v>853</v>
       </c>
       <c r="C67" s="6"/>
@@ -8107,82 +8367,82 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="32"/>
+      <c r="C69" s="28"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="26" t="s">
         <v>854</v>
       </c>
-      <c r="C70" s="32"/>
+      <c r="C70" s="28"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="26" t="s">
         <v>855</v>
       </c>
-      <c r="C71" s="32"/>
+      <c r="C71" s="28"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="26" t="s">
         <v>856</v>
       </c>
-      <c r="C72" s="32"/>
+      <c r="C72" s="28"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="C73" s="32"/>
+      <c r="C73" s="28"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="C74" s="32"/>
+      <c r="C74" s="28"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="26" t="s">
         <v>859</v>
       </c>
-      <c r="C75" s="32"/>
+      <c r="C75" s="28"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="26" t="s">
         <v>860</v>
       </c>
-      <c r="C76" s="32"/>
+      <c r="C76" s="28"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="C77" s="32"/>
+      <c r="C77" s="28"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="26" t="s">
         <v>862</v>
       </c>
-      <c r="C78" s="32"/>
+      <c r="C78" s="28"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="26" t="s">
         <v>863</v>
       </c>
-      <c r="C79" s="32"/>
+      <c r="C79" s="28"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="26" t="s">
         <v>864</v>
       </c>
-      <c r="C80" s="32"/>
+      <c r="C80" s="28"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="26" t="s">
         <v>865</v>
       </c>
-      <c r="C81" s="32"/>
+      <c r="C81" s="28"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="15" t="s">
@@ -8205,7 +8465,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="26" t="s">
         <v>866</v>
       </c>
       <c r="C84" s="7"/>
@@ -8222,7 +8482,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="26" t="s">
         <v>867</v>
       </c>
       <c r="C86" s="8"/>
@@ -8260,7 +8520,7 @@
         <v>1702.15</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>165</v>
       </c>
@@ -8369,20 +8629,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8456,7 +8716,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>868</v>
       </c>
       <c r="C5" s="4"/>
@@ -8489,7 +8749,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>869</v>
       </c>
       <c r="C7" s="8"/>
@@ -8499,7 +8759,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>870</v>
       </c>
       <c r="C8" s="8"/>
@@ -8509,7 +8769,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="26" t="s">
         <v>871</v>
       </c>
       <c r="C9" s="8"/>
@@ -8542,7 +8802,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>872</v>
       </c>
       <c r="C11" s="7"/>
@@ -8690,7 +8950,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="26" t="s">
         <v>877</v>
       </c>
       <c r="C18" s="7"/>
@@ -8700,7 +8960,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="26" t="s">
         <v>878</v>
       </c>
       <c r="C19" s="7"/>
@@ -8733,7 +8993,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>873</v>
       </c>
       <c r="B21" s="21"/>
@@ -8744,7 +9004,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="26" t="s">
         <v>874</v>
       </c>
       <c r="B22" s="21"/>
@@ -8755,7 +9015,7 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="26" t="s">
         <v>875</v>
       </c>
       <c r="B23" s="21"/>
@@ -8766,7 +9026,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="26" t="s">
         <v>876</v>
       </c>
       <c r="B24" s="21"/>
@@ -8777,7 +9037,7 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="26" t="s">
         <v>879</v>
       </c>
       <c r="B25" s="21"/>
@@ -8788,7 +9048,7 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="26" t="s">
         <v>880</v>
       </c>
       <c r="B26" s="21"/>
@@ -8799,7 +9059,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="26" t="s">
         <v>881</v>
       </c>
       <c r="B27" s="21"/>
@@ -8810,86 +9070,87 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="30"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" t="s">
-        <v>461</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25">
+        <v>179</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="C29" s="8">
+        <v>48.65</v>
+      </c>
+      <c r="D29" s="8">
+        <v>48.65</v>
+      </c>
+      <c r="E29" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="F29" s="8">
+        <v>228.71</v>
+      </c>
+      <c r="G29" s="8">
+        <v>185.14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="C30" s="8">
-        <v>48.65</v>
-      </c>
-      <c r="D30" s="8">
-        <v>48.65</v>
-      </c>
-      <c r="E30" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="F30" s="8">
-        <v>228.71</v>
-      </c>
-      <c r="G30" s="8">
-        <v>185.14</v>
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="7">
+        <v>115.85</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1054.43</v>
+      </c>
+      <c r="E30" s="7">
+        <v>892.23</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3240.83</v>
+      </c>
+      <c r="G30" s="4">
+        <v>7918.24</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" t="s">
-        <v>345</v>
-      </c>
-      <c r="C31" s="7">
-        <v>115.85</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1054.43</v>
-      </c>
-      <c r="E31" s="7">
-        <v>892.23</v>
-      </c>
-      <c r="F31" s="4">
-        <v>3240.83</v>
-      </c>
-      <c r="G31" s="4">
-        <v>7918.24</v>
-      </c>
+      <c r="A31" s="26" t="s">
+        <v>882</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="30" t="s">
-        <v>882</v>
+      <c r="A32" s="26" t="s">
+        <v>883</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="4"/>
@@ -8898,8 +9159,8 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="30" t="s">
-        <v>883</v>
+      <c r="A33" s="26" t="s">
+        <v>884</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="4"/>
@@ -8908,8 +9169,8 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="30" t="s">
-        <v>884</v>
+      <c r="A34" s="26" t="s">
+        <v>885</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="4"/>
@@ -8918,8 +9179,8 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="30" t="s">
-        <v>885</v>
+      <c r="A35" s="26" t="s">
+        <v>886</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="4"/>
@@ -8928,8 +9189,8 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="30" t="s">
-        <v>886</v>
+      <c r="A36" s="26" t="s">
+        <v>887</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="4"/>
@@ -8938,8 +9199,8 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="30" t="s">
-        <v>887</v>
+      <c r="A37" s="26" t="s">
+        <v>888</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="4"/>
@@ -8948,415 +9209,243 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" t="s">
-        <v>346</v>
-      </c>
-      <c r="C38" s="6">
-        <v>48410</v>
-      </c>
-      <c r="D38" s="6">
-        <v>25906</v>
-      </c>
-      <c r="E38" s="6">
-        <v>13664.4</v>
-      </c>
-      <c r="F38" s="6">
-        <v>57603</v>
-      </c>
-      <c r="G38" s="6">
-        <v>37211.300000000003</v>
-      </c>
+      <c r="A38" s="26" t="s">
+        <v>889</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" t="s">
-        <v>347</v>
-      </c>
-      <c r="C39" s="4">
-        <v>31048.3</v>
-      </c>
-      <c r="D39" s="4">
-        <v>14210.3</v>
-      </c>
-      <c r="E39" s="4">
-        <v>6517.08</v>
-      </c>
-      <c r="F39" s="4">
-        <v>37922.199999999997</v>
-      </c>
-      <c r="G39" s="4">
-        <v>26407.7</v>
-      </c>
+      <c r="A39" s="26" t="s">
+        <v>890</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" t="s">
-        <v>462</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A40" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>463</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>4</v>
+        <v>346</v>
+      </c>
+      <c r="C41" s="6">
+        <v>48410</v>
+      </c>
+      <c r="D41" s="6">
+        <v>25906</v>
+      </c>
+      <c r="E41" s="6">
+        <v>13664.4</v>
+      </c>
+      <c r="F41" s="6">
+        <v>57603</v>
+      </c>
+      <c r="G41" s="6">
+        <v>37211.300000000003</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B42" t="s">
-        <v>464</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>4</v>
+        <v>347</v>
+      </c>
+      <c r="C42" s="4">
+        <v>31048.3</v>
+      </c>
+      <c r="D42" s="4">
+        <v>14210.3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>6517.08</v>
+      </c>
+      <c r="F42" s="4">
+        <v>37922.199999999997</v>
+      </c>
+      <c r="G42" s="4">
+        <v>26407.7</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B43" t="s">
-        <v>465</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>466</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" t="s">
-        <v>348</v>
-      </c>
-      <c r="C45" s="4">
-        <v>4074.73</v>
-      </c>
-      <c r="D45" s="4">
-        <v>3074.94</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1642.24</v>
-      </c>
-      <c r="F45" s="4">
-        <v>8067.16</v>
-      </c>
-      <c r="G45" s="4">
-        <v>5724.56</v>
-      </c>
+      <c r="A45" s="26" t="s">
+        <v>892</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>189</v>
-      </c>
-      <c r="B46" t="s">
-        <v>349</v>
-      </c>
-      <c r="C46" s="6">
-        <v>2392.09</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1994.16</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1536.13</v>
-      </c>
-      <c r="F46" s="6">
-        <v>6254.78</v>
-      </c>
-      <c r="G46" s="6">
-        <v>3280.82</v>
-      </c>
+      <c r="A46" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" t="s">
-        <v>350</v>
-      </c>
-      <c r="C47" s="4">
-        <v>2864.99</v>
-      </c>
-      <c r="D47" s="4">
-        <v>3058.47</v>
-      </c>
-      <c r="E47" s="4">
-        <v>3010.97</v>
-      </c>
-      <c r="F47" s="4">
-        <v>9351.5</v>
-      </c>
-      <c r="G47" s="4">
-        <v>11518</v>
-      </c>
+      <c r="A47" s="26" t="s">
+        <v>894</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" t="s">
-        <v>351</v>
-      </c>
-      <c r="C48" s="6">
-        <v>40380.1</v>
-      </c>
-      <c r="D48" s="6">
-        <v>22337.9</v>
-      </c>
-      <c r="E48" s="6">
-        <v>12706.4</v>
-      </c>
-      <c r="F48" s="6">
-        <v>61595.6</v>
-      </c>
-      <c r="G48" s="6">
-        <v>46931</v>
-      </c>
+      <c r="A48" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" t="s">
-        <v>352</v>
-      </c>
-      <c r="C49" s="4">
-        <v>8029.87</v>
-      </c>
-      <c r="D49" s="4">
-        <v>3568.15</v>
-      </c>
-      <c r="E49" s="7">
-        <v>957.94</v>
-      </c>
-      <c r="F49" s="4">
-        <v>-3992.67</v>
-      </c>
-      <c r="G49" s="4">
-        <v>-9719.7199999999993</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="1"/>
+      <c r="A49" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="26" t="s">
+        <v>897</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" t="s">
-        <v>353</v>
-      </c>
-      <c r="C51" s="7">
-        <v>102.08</v>
-      </c>
-      <c r="D51" s="7">
-        <v>102.08</v>
-      </c>
-      <c r="E51" s="7">
-        <v>69.819999999999993</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A51" s="26" t="s">
+        <v>898</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" t="s">
-        <v>354</v>
-      </c>
-      <c r="C52" s="8">
-        <v>3.6</v>
-      </c>
-      <c r="D52" s="8">
-        <v>3.58</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A52" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" t="s">
-        <v>355</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="F53" s="7">
-        <v>45.48</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A53" s="26" t="s">
+        <v>900</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" t="s">
-        <v>469</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A54" s="26" t="s">
+        <v>901</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" t="s">
-        <v>356</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="7">
-        <v>31.06</v>
-      </c>
-      <c r="F55" s="7">
-        <v>823.53</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A55" s="26" t="s">
+        <v>902</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>4</v>
@@ -9376,79 +9465,53 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C57" s="7">
-        <v>105.69</v>
-      </c>
-      <c r="D57" s="7">
-        <v>105.67</v>
-      </c>
-      <c r="E57" s="7">
-        <v>100.97</v>
-      </c>
-      <c r="F57" s="7">
-        <v>869</v>
+        <v>465</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" t="s">
-        <v>358</v>
-      </c>
-      <c r="C58" s="6">
-        <v>32393</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1314.05</v>
-      </c>
-      <c r="E58" s="8">
-        <v>607.16999999999996</v>
-      </c>
-      <c r="F58" s="6">
-        <v>6592.14</v>
-      </c>
-      <c r="G58" s="6">
-        <v>5152.84</v>
-      </c>
+      <c r="A58" s="26" t="s">
+        <v>903</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" t="s">
-        <v>359</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="4">
-        <v>3000</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A59" s="26" t="s">
+        <v>904</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B60" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>4</v>
@@ -9468,721 +9531,502 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>452</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>4</v>
+        <v>348</v>
+      </c>
+      <c r="C61" s="4">
+        <v>4074.73</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3074.94</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1642.24</v>
+      </c>
+      <c r="F61" s="4">
+        <v>8067.16</v>
+      </c>
+      <c r="G61" s="4">
+        <v>5724.56</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>360</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>4</v>
+        <v>349</v>
+      </c>
+      <c r="C62" s="6">
+        <v>2392.09</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1994.16</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1536.13</v>
+      </c>
+      <c r="F62" s="6">
+        <v>6254.78</v>
+      </c>
+      <c r="G62" s="6">
+        <v>3280.82</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>451</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>4</v>
+        <v>350</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2864.99</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3058.47</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3010.97</v>
+      </c>
+      <c r="F63" s="4">
+        <v>9351.5</v>
+      </c>
+      <c r="G63" s="4">
+        <v>11518</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" t="s">
-        <v>361</v>
-      </c>
-      <c r="C64" s="6">
-        <v>32393</v>
-      </c>
-      <c r="D64" s="6">
-        <v>1314.05</v>
-      </c>
-      <c r="E64" s="8">
-        <v>607.16999999999996</v>
-      </c>
-      <c r="F64" s="6">
-        <v>9592.14</v>
-      </c>
-      <c r="G64" s="6">
-        <v>5152.84</v>
-      </c>
+      <c r="A64" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" t="s">
-        <v>362</v>
-      </c>
-      <c r="C65" s="4">
-        <v>-32287.4</v>
-      </c>
-      <c r="D65" s="4">
-        <v>-1208.3800000000001</v>
-      </c>
-      <c r="E65" s="7">
-        <v>-506.21</v>
-      </c>
-      <c r="F65" s="4">
-        <v>-8723.14</v>
-      </c>
-      <c r="G65" s="4">
-        <v>-5152.84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="1"/>
+      <c r="A65" s="26" t="s">
+        <v>906</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>208</v>
-      </c>
-      <c r="B67" t="s">
-        <v>442</v>
-      </c>
-      <c r="C67" s="4">
-        <v>1212.5899999999999</v>
-      </c>
-      <c r="D67" s="4">
-        <v>1212.5899999999999</v>
-      </c>
-      <c r="E67" s="7">
-        <v>371.27</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A67" s="26" t="s">
+        <v>908</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B68" t="s">
-        <v>453</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A68" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" t="s">
-        <v>443</v>
-      </c>
-      <c r="C69" s="4">
-        <v>2400</v>
-      </c>
-      <c r="D69" s="4">
-        <v>4300</v>
-      </c>
-      <c r="E69" s="7">
-        <v>500</v>
-      </c>
-      <c r="F69" s="4">
-        <v>14800</v>
-      </c>
-      <c r="G69" s="4">
-        <v>28170.1</v>
-      </c>
+      <c r="A69" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>211</v>
-      </c>
-      <c r="B70" t="s">
-        <v>444</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="6">
-        <v>14755</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A70" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" t="s">
-        <v>445</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="4">
-        <v>1314.94</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A71" s="26" t="s">
+        <v>912</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>213</v>
-      </c>
-      <c r="B72" t="s">
-        <v>446</v>
-      </c>
-      <c r="C72" s="6">
-        <v>3612.59</v>
-      </c>
-      <c r="D72" s="6">
-        <v>5512.59</v>
-      </c>
-      <c r="E72" s="8">
-        <v>871.27</v>
-      </c>
-      <c r="F72" s="6">
-        <v>30869.9</v>
-      </c>
-      <c r="G72" s="6">
-        <v>28170.1</v>
-      </c>
+      <c r="A72" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>214</v>
-      </c>
-      <c r="B73" t="s">
-        <v>447</v>
-      </c>
-      <c r="C73" s="4">
-        <v>1360</v>
-      </c>
-      <c r="D73" s="4">
-        <v>8860</v>
-      </c>
-      <c r="E73" s="4">
-        <v>4360</v>
-      </c>
-      <c r="F73" s="4">
-        <v>9140</v>
-      </c>
-      <c r="G73" s="4">
-        <v>7982.61</v>
-      </c>
+      <c r="A73" s="26" t="s">
+        <v>914</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>448</v>
+        <v>351</v>
       </c>
       <c r="C74" s="6">
-        <v>2292.6999999999998</v>
+        <v>40380.1</v>
       </c>
       <c r="D74" s="6">
-        <v>1488.71</v>
-      </c>
-      <c r="E74" s="8">
-        <v>460.97</v>
+        <v>22337.9</v>
+      </c>
+      <c r="E74" s="6">
+        <v>12706.4</v>
       </c>
       <c r="F74" s="6">
-        <v>2967.17</v>
+        <v>61595.6</v>
       </c>
       <c r="G74" s="6">
-        <v>2621.74</v>
+        <v>46931</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>782</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>216</v>
-      </c>
-      <c r="B76" t="s">
-        <v>467</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="6">
-        <v>4341.07</v>
-      </c>
-      <c r="G76" s="6">
-        <v>3820.08</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B75" t="s">
+        <v>352</v>
+      </c>
+      <c r="C75" s="4">
+        <v>8029.87</v>
+      </c>
+      <c r="D75" s="4">
+        <v>3568.15</v>
+      </c>
+      <c r="E75" s="7">
+        <v>957.94</v>
+      </c>
+      <c r="F75" s="4">
+        <v>-3992.67</v>
+      </c>
+      <c r="G75" s="4">
+        <v>-9719.7199999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1">
+      <c r="A76" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
-        <v>449</v>
-      </c>
-      <c r="C77" s="4">
-        <v>3652.7</v>
-      </c>
-      <c r="D77" s="4">
-        <v>10348.700000000001</v>
-      </c>
-      <c r="E77" s="4">
-        <v>4820.97</v>
-      </c>
-      <c r="F77" s="4">
-        <v>16448.2</v>
-      </c>
-      <c r="G77" s="4">
-        <v>14424.4</v>
+        <v>353</v>
+      </c>
+      <c r="C77" s="7">
+        <v>102.08</v>
+      </c>
+      <c r="D77" s="7">
+        <v>102.08</v>
+      </c>
+      <c r="E77" s="7">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>218</v>
-      </c>
-      <c r="B78" t="s">
-        <v>500</v>
-      </c>
-      <c r="C78" s="8">
-        <v>-40.1</v>
-      </c>
-      <c r="D78" s="6">
-        <v>-4836.1099999999997</v>
-      </c>
-      <c r="E78" s="6">
-        <v>-3949.69</v>
-      </c>
-      <c r="F78" s="6">
-        <v>14421.7</v>
-      </c>
-      <c r="G78" s="6">
-        <v>13745.7</v>
-      </c>
+      <c r="A78" s="26" t="s">
+        <v>915</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="1"/>
+      <c r="A79" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="D79" s="8">
+        <v>3.58</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" t="s">
-        <v>363</v>
-      </c>
-      <c r="C80" s="6">
-        <v>1276.2</v>
-      </c>
-      <c r="D80" s="6">
-        <v>1272.21</v>
-      </c>
-      <c r="E80" s="8">
-        <v>-4.68</v>
-      </c>
-      <c r="F80" s="8">
-        <v>-339.47</v>
-      </c>
-      <c r="G80" s="8">
-        <v>91.74</v>
-      </c>
+      <c r="A80" s="26" t="s">
+        <v>916</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" t="s">
-        <v>364</v>
-      </c>
-      <c r="C81" s="4">
-        <v>-23021.4</v>
-      </c>
-      <c r="D81" s="4">
-        <v>-1204.1300000000001</v>
-      </c>
-      <c r="E81" s="4">
-        <v>-3502.65</v>
-      </c>
-      <c r="F81" s="4">
-        <v>1366.42</v>
-      </c>
-      <c r="G81" s="4">
-        <v>-1035.18</v>
-      </c>
+      <c r="A81" s="26" t="s">
+        <v>917</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>222</v>
-      </c>
-      <c r="B82" t="s">
-        <v>365</v>
-      </c>
-      <c r="C82" s="6">
-        <v>53238.7</v>
-      </c>
-      <c r="D82" s="6">
-        <v>53238.7</v>
-      </c>
-      <c r="E82" s="6">
-        <v>53249</v>
-      </c>
-      <c r="F82" s="6">
-        <v>51872.3</v>
-      </c>
-      <c r="G82" s="6">
-        <v>52184.7</v>
-      </c>
+      <c r="A82" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="B83" t="s">
-        <v>366</v>
-      </c>
-      <c r="C83" s="4">
-        <v>30217.3</v>
-      </c>
-      <c r="D83" s="4">
-        <v>52034.6</v>
-      </c>
-      <c r="E83" s="4">
-        <v>49746.3</v>
-      </c>
-      <c r="F83" s="4">
-        <v>53238.7</v>
-      </c>
-      <c r="G83" s="4">
-        <v>51149.599999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.25">
-      <c r="A84" t="s">
-        <v>224</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="6">
-        <v>1136.93</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="6">
-        <v>-12108.8</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F83" s="7">
+        <v>45.48</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="26" t="s">
+        <v>919</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>470</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>225</v>
-      </c>
-      <c r="B86" t="s">
-        <v>471</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A86" s="26" t="s">
+        <v>920</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>468</v>
+        <v>197</v>
+      </c>
+      <c r="B87" t="s">
+        <v>356</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="7">
-        <v>-300.45</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="4">
-        <v>8897.8799999999992</v>
+      <c r="D87" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="7">
+        <v>31.06</v>
+      </c>
+      <c r="F87" s="7">
+        <v>823.53</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>227</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="8">
-        <v>594.08000000000004</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="6">
-        <v>1094.8399999999999</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A88" s="26" t="s">
+        <v>921</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B89" t="s">
-        <v>473</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="7">
-        <v>790.03</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="4">
-        <v>1505.05</v>
-      </c>
-      <c r="G89" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="B90" t="s">
-        <v>498</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="8">
-        <v>58.47</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="8">
-        <v>48.43</v>
-      </c>
-      <c r="G90" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C90" s="7">
+        <v>105.69</v>
+      </c>
+      <c r="D90" s="7">
+        <v>105.67</v>
+      </c>
+      <c r="E90" s="7">
+        <v>100.97</v>
+      </c>
+      <c r="F90" s="7">
+        <v>869</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="B91" t="s">
-        <v>499</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>4</v>
+        <v>358</v>
+      </c>
+      <c r="C91" s="6">
+        <v>32393</v>
+      </c>
+      <c r="D91" s="6">
+        <v>1314.05</v>
+      </c>
+      <c r="E91" s="8">
+        <v>607.16999999999996</v>
+      </c>
+      <c r="F91" s="6">
+        <v>6592.14</v>
+      </c>
+      <c r="G91" s="6">
+        <v>5152.84</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>231</v>
-      </c>
-      <c r="B92" t="s">
-        <v>474</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A92" s="26" t="s">
+        <v>927</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
-        <v>475</v>
+        <v>359</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>4</v>
@@ -10193,353 +10037,265 @@
       <c r="E93" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="7">
-        <v>3.41</v>
+      <c r="F93" s="4">
+        <v>3000</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>233</v>
-      </c>
-      <c r="B94" t="s">
-        <v>476</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A94" s="26" t="s">
+        <v>922</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>234</v>
-      </c>
-      <c r="B95" t="s">
-        <v>477</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="7">
-        <v>-98.26</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A95" s="26" t="s">
+        <v>923</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>235</v>
-      </c>
-      <c r="B96" t="s">
-        <v>478</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A96" s="26" t="s">
+        <v>924</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="B97" t="s">
-        <v>479</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G97" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="B98" t="s">
-        <v>480</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" s="6">
-        <v>1340.9</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" s="6">
-        <v>2713.53</v>
-      </c>
-      <c r="G98" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>237</v>
-      </c>
-      <c r="B99" t="s">
-        <v>481</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="7">
-        <v>-141.24</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" s="7">
-        <v>113.99</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A99" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>238</v>
-      </c>
-      <c r="B100" t="s">
-        <v>482</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="8">
-        <v>-71.59</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="8">
-        <v>324.32</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A100" s="26" t="s">
+        <v>926</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B101" t="s">
-        <v>483</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="7">
-        <v>-4.33</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="7">
-        <v>-933.44</v>
-      </c>
-      <c r="G101" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>484</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="8">
-        <v>-625.33000000000004</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="8">
-        <v>612.48</v>
-      </c>
-      <c r="G102" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>485</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="4">
-        <v>2990.56</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" s="4">
-        <v>-7632.53</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>4</v>
+        <v>361</v>
+      </c>
+      <c r="C103" s="6">
+        <v>32393</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1314.05</v>
+      </c>
+      <c r="E103" s="8">
+        <v>607.16999999999996</v>
+      </c>
+      <c r="F103" s="6">
+        <v>9592.14</v>
+      </c>
+      <c r="G103" s="6">
+        <v>5152.84</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>486</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104" s="6">
-        <v>-2199.88</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F104" s="6">
-        <v>1466.44</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
-        <v>243</v>
-      </c>
-      <c r="B105" t="s">
-        <v>487</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>4</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C104" s="4">
+        <v>-32287.4</v>
+      </c>
+      <c r="D104" s="4">
+        <v>-1208.3800000000001</v>
+      </c>
+      <c r="E104" s="7">
+        <v>-506.21</v>
+      </c>
+      <c r="F104" s="4">
+        <v>-8723.14</v>
+      </c>
+      <c r="G104" s="4">
+        <v>-5152.84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15" customHeight="1">
+      <c r="A105" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
-        <v>488</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G106" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1212.5899999999999</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1212.5899999999999</v>
+      </c>
+      <c r="E106" s="7">
+        <v>371.27</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" t="s">
-        <v>245</v>
-      </c>
-      <c r="B107" t="s">
-        <v>497</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A107" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="B108" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="6">
-        <v>3568.15</v>
+      <c r="D108" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="6">
-        <v>-3992.67</v>
+      <c r="F108" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>4</v>
@@ -10547,186 +10303,1554 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="B109" t="s">
-        <v>490</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>4</v>
+        <v>443</v>
+      </c>
+      <c r="C109" s="4">
+        <v>2400</v>
+      </c>
+      <c r="D109" s="4">
+        <v>4300</v>
+      </c>
+      <c r="E109" s="7">
+        <v>500</v>
+      </c>
+      <c r="F109" s="4">
+        <v>14800</v>
+      </c>
+      <c r="G109" s="4">
+        <v>28170.1</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" t="s">
-        <v>248</v>
-      </c>
-      <c r="B110" t="s">
-        <v>491</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A110" s="26" t="s">
+        <v>929</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="B111" t="s">
-        <v>492</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G111" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="6">
+        <v>14755</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" t="s">
-        <v>250</v>
-      </c>
-      <c r="B112" t="s">
-        <v>493</v>
-      </c>
-      <c r="C112" s="6">
-        <v>30217.3</v>
-      </c>
-      <c r="D112" s="6">
-        <v>52034.6</v>
-      </c>
-      <c r="E112" s="6">
-        <v>49746.3</v>
-      </c>
-      <c r="F112" s="6">
-        <v>53238.7</v>
-      </c>
-      <c r="G112" s="6">
-        <v>51149.599999999999</v>
-      </c>
+      <c r="A112" s="26" t="s">
+        <v>930</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="8"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" t="s">
-        <v>251</v>
-      </c>
-      <c r="B113" t="s">
-        <v>494</v>
-      </c>
-      <c r="C113" s="4">
-        <v>53238.7</v>
-      </c>
-      <c r="D113" s="4">
-        <v>53238.7</v>
-      </c>
-      <c r="E113" s="4">
-        <v>53249</v>
-      </c>
-      <c r="F113" s="4">
-        <v>51872.3</v>
-      </c>
-      <c r="G113" s="4">
-        <v>52184.7</v>
-      </c>
+      <c r="A113" s="26" t="s">
+        <v>931</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="8"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>495</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G114" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1314.94</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>496</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>4</v>
+        <v>446</v>
+      </c>
+      <c r="C115" s="6">
+        <v>3612.59</v>
+      </c>
+      <c r="D115" s="6">
+        <v>5512.59</v>
+      </c>
+      <c r="E115" s="8">
+        <v>871.27</v>
+      </c>
+      <c r="F115" s="6">
+        <v>30869.9</v>
+      </c>
+      <c r="G115" s="6">
+        <v>28170.1</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
+        <v>214</v>
+      </c>
+      <c r="B116" t="s">
+        <v>447</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1360</v>
+      </c>
+      <c r="D116" s="4">
+        <v>8860</v>
+      </c>
+      <c r="E116" s="4">
+        <v>4360</v>
+      </c>
+      <c r="F116" s="4">
+        <v>9140</v>
+      </c>
+      <c r="G116" s="4">
+        <v>7982.61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="26" t="s">
+        <v>932</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>215</v>
+      </c>
+      <c r="B118" t="s">
+        <v>448</v>
+      </c>
+      <c r="C118" s="6">
+        <v>2292.6999999999998</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1488.71</v>
+      </c>
+      <c r="E118" s="8">
+        <v>460.97</v>
+      </c>
+      <c r="F118" s="6">
+        <v>2967.17</v>
+      </c>
+      <c r="G118" s="6">
+        <v>2621.74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="26" t="s">
+        <v>933</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>782</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="26" t="s">
+        <v>934</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" t="s">
+        <v>467</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="6">
+        <v>4341.07</v>
+      </c>
+      <c r="G122" s="6">
+        <v>3820.08</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>217</v>
+      </c>
+      <c r="B123" t="s">
+        <v>449</v>
+      </c>
+      <c r="C123" s="4">
+        <v>3652.7</v>
+      </c>
+      <c r="D123" s="4">
+        <v>10348.700000000001</v>
+      </c>
+      <c r="E123" s="4">
+        <v>4820.97</v>
+      </c>
+      <c r="F123" s="4">
+        <v>16448.2</v>
+      </c>
+      <c r="G123" s="4">
+        <v>14424.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" t="s">
+        <v>500</v>
+      </c>
+      <c r="C124" s="8">
+        <v>-40.1</v>
+      </c>
+      <c r="D124" s="6">
+        <v>-4836.1099999999997</v>
+      </c>
+      <c r="E124" s="6">
+        <v>-3949.69</v>
+      </c>
+      <c r="F124" s="6">
+        <v>14421.7</v>
+      </c>
+      <c r="G124" s="6">
+        <v>13745.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126" t="s">
+        <v>363</v>
+      </c>
+      <c r="C126" s="6">
+        <v>1276.2</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1272.21</v>
+      </c>
+      <c r="E126" s="8">
+        <v>-4.68</v>
+      </c>
+      <c r="F126" s="8">
+        <v>-339.47</v>
+      </c>
+      <c r="G126" s="8">
+        <v>91.74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="26" t="s">
+        <v>935</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" t="s">
+        <v>364</v>
+      </c>
+      <c r="C128" s="4">
+        <v>-23021.4</v>
+      </c>
+      <c r="D128" s="4">
+        <v>-1204.1300000000001</v>
+      </c>
+      <c r="E128" s="4">
+        <v>-3502.65</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1366.42</v>
+      </c>
+      <c r="G128" s="4">
+        <v>-1035.18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="26" t="s">
+        <v>936</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="6">
+        <v>53238.7</v>
+      </c>
+      <c r="D130" s="6">
+        <v>53238.7</v>
+      </c>
+      <c r="E130" s="6">
+        <v>53249</v>
+      </c>
+      <c r="F130" s="6">
+        <v>51872.3</v>
+      </c>
+      <c r="G130" s="6">
+        <v>52184.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="26" t="s">
+        <v>937</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" t="s">
+        <v>366</v>
+      </c>
+      <c r="C132" s="4">
+        <v>30217.3</v>
+      </c>
+      <c r="D132" s="4">
+        <v>52034.6</v>
+      </c>
+      <c r="E132" s="4">
+        <v>49746.3</v>
+      </c>
+      <c r="F132" s="4">
+        <v>53238.7</v>
+      </c>
+      <c r="G132" s="4">
+        <v>51149.599999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="26" t="s">
+        <v>938</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" ht="15.75">
+      <c r="A134" t="s">
+        <v>224</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1136.93</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="6">
+        <v>-12108.8</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>111</v>
+      </c>
+      <c r="B135" t="s">
+        <v>470</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="26" t="s">
+        <v>939</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>225</v>
+      </c>
+      <c r="B137" t="s">
+        <v>471</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>226</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="7">
+        <v>-300.45</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="4">
+        <v>8897.8799999999992</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="26" t="s">
+        <v>940</v>
+      </c>
+      <c r="B139" s="21"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="26" t="s">
+        <v>941</v>
+      </c>
+      <c r="B140" s="21"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="26" t="s">
+        <v>942</v>
+      </c>
+      <c r="B141" s="21"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="B142" s="21"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="7"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>227</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="8">
+        <v>594.08000000000004</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" s="6">
+        <v>1094.8399999999999</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="26" t="s">
+        <v>944</v>
+      </c>
+      <c r="B144" s="21"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="26" t="s">
+        <v>945</v>
+      </c>
+      <c r="B145" s="21"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="26" t="s">
+        <v>946</v>
+      </c>
+      <c r="B146" s="21"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="26" t="s">
+        <v>947</v>
+      </c>
+      <c r="B147" s="21"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>228</v>
+      </c>
+      <c r="B148" t="s">
+        <v>473</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="7">
+        <v>790.03</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1505.05</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" t="s">
+        <v>498</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="8">
+        <v>58.47</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="8">
+        <v>48.43</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="26" t="s">
+        <v>948</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>230</v>
+      </c>
+      <c r="B151" t="s">
+        <v>499</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>231</v>
+      </c>
+      <c r="B152" t="s">
+        <v>474</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>232</v>
+      </c>
+      <c r="B153" t="s">
+        <v>475</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="7">
+        <v>3.41</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="26" t="s">
+        <v>949</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="26" t="s">
+        <v>950</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>233</v>
+      </c>
+      <c r="B156" t="s">
+        <v>476</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>234</v>
+      </c>
+      <c r="B157" t="s">
+        <v>477</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="7">
+        <v>-98.26</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="26" t="s">
+        <v>952</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>235</v>
+      </c>
+      <c r="B159" t="s">
+        <v>478</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>236</v>
+      </c>
+      <c r="B160" t="s">
+        <v>479</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" t="s">
+        <v>480</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="6">
+        <v>1340.9</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" s="6">
+        <v>2713.53</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>237</v>
+      </c>
+      <c r="B162" t="s">
+        <v>481</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="7">
+        <v>-141.24</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="7">
+        <v>113.99</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="26" t="s">
+        <v>951</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>238</v>
+      </c>
+      <c r="B164" t="s">
+        <v>482</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="8">
+        <v>-71.59</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="8">
+        <v>324.32</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="26" t="s">
+        <v>962</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>239</v>
+      </c>
+      <c r="B166" t="s">
+        <v>483</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="7">
+        <v>-4.33</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="7">
+        <v>-933.44</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>240</v>
+      </c>
+      <c r="B168" t="s">
+        <v>484</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="8">
+        <v>-625.33000000000004</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" s="8">
+        <v>612.48</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="26" t="s">
+        <v>953</v>
+      </c>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="26" t="s">
+        <v>954</v>
+      </c>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="26" t="s">
+        <v>955</v>
+      </c>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="26" t="s">
+        <v>956</v>
+      </c>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="26" t="s">
+        <v>957</v>
+      </c>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="26" t="s">
+        <v>958</v>
+      </c>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="26" t="s">
+        <v>960</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="26" t="s">
+        <v>961</v>
+      </c>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>241</v>
+      </c>
+      <c r="B179" t="s">
+        <v>485</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="4">
+        <v>2990.56</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="4">
+        <v>-7632.53</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>242</v>
+      </c>
+      <c r="B180" t="s">
+        <v>486</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="6">
+        <v>-2199.88</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" s="6">
+        <v>1466.44</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="26" t="s">
+        <v>965</v>
+      </c>
+      <c r="C181" s="8"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="26" t="s">
+        <v>966</v>
+      </c>
+      <c r="C182" s="8"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>243</v>
+      </c>
+      <c r="B183" t="s">
+        <v>487</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>244</v>
+      </c>
+      <c r="B184" t="s">
+        <v>488</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>245</v>
+      </c>
+      <c r="B185" t="s">
+        <v>497</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>246</v>
+      </c>
+      <c r="B186" t="s">
+        <v>489</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="6">
+        <v>3568.15</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="6">
+        <v>-3992.67</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="26" t="s">
+        <v>967</v>
+      </c>
+      <c r="C187" s="8"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="8"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="C188" s="8"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="8"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="26" t="s">
+        <v>969</v>
+      </c>
+      <c r="C189" s="8"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="8"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="C190" s="8"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="8"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>247</v>
+      </c>
+      <c r="B191" t="s">
+        <v>490</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>248</v>
+      </c>
+      <c r="B192" t="s">
+        <v>491</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>249</v>
+      </c>
+      <c r="B193" t="s">
+        <v>492</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>250</v>
+      </c>
+      <c r="B195" t="s">
+        <v>493</v>
+      </c>
+      <c r="C195" s="6">
+        <v>30217.3</v>
+      </c>
+      <c r="D195" s="6">
+        <v>52034.6</v>
+      </c>
+      <c r="E195" s="6">
+        <v>49746.3</v>
+      </c>
+      <c r="F195" s="6">
+        <v>53238.7</v>
+      </c>
+      <c r="G195" s="6">
+        <v>51149.599999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>251</v>
+      </c>
+      <c r="B196" t="s">
+        <v>494</v>
+      </c>
+      <c r="C196" s="4">
+        <v>53238.7</v>
+      </c>
+      <c r="D196" s="4">
+        <v>53238.7</v>
+      </c>
+      <c r="E196" s="4">
+        <v>53249</v>
+      </c>
+      <c r="F196" s="4">
+        <v>51872.3</v>
+      </c>
+      <c r="G196" s="4">
+        <v>52184.7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>252</v>
+      </c>
+      <c r="B198" t="s">
+        <v>495</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>253</v>
+      </c>
+      <c r="B199" t="s">
+        <v>496</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="26" t="s">
+        <v>973</v>
+      </c>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
         <v>254</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B201" t="s">
         <v>364</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C201" s="6">
         <v>-23021.4</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D201" s="6">
         <v>-1204.1300000000001</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E201" s="6">
         <v>-3502.65</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F201" s="6">
         <v>1366.42</v>
       </c>
-      <c r="G116" s="6">
+      <c r="G201" s="6">
         <v>-1035.18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="26" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -10742,120 +11866,206 @@
     <hyperlink ref="A16" r:id="rId8" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst81"/>
     <hyperlink ref="A17" r:id="rId9" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst82"/>
     <hyperlink ref="A20" r:id="rId10" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst83"/>
-    <hyperlink ref="A29" r:id="rId11" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst84"/>
-    <hyperlink ref="A30" r:id="rId12" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst2"/>
-    <hyperlink ref="A31" r:id="rId13" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst3"/>
-    <hyperlink ref="A38" r:id="rId14" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst4"/>
-    <hyperlink ref="A39" r:id="rId15" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst5"/>
-    <hyperlink ref="A40" r:id="rId16" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst85"/>
-    <hyperlink ref="A41" r:id="rId17" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst86"/>
-    <hyperlink ref="A42" r:id="rId18" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst87"/>
-    <hyperlink ref="A43" r:id="rId19" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst88"/>
-    <hyperlink ref="A44" r:id="rId20" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst89"/>
-    <hyperlink ref="A45" r:id="rId21" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst6"/>
-    <hyperlink ref="A46" r:id="rId22" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst7"/>
-    <hyperlink ref="A47" r:id="rId23" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst8"/>
-    <hyperlink ref="A48" r:id="rId24" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst9"/>
-    <hyperlink ref="A49" r:id="rId25" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst10"/>
-    <hyperlink ref="A51" r:id="rId26" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst11"/>
-    <hyperlink ref="A52" r:id="rId27" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst12"/>
-    <hyperlink ref="A53" r:id="rId28" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst13"/>
-    <hyperlink ref="A54" r:id="rId29" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst66"/>
-    <hyperlink ref="A55" r:id="rId30" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst14"/>
-    <hyperlink ref="A56" r:id="rId31" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst96"/>
-    <hyperlink ref="A57" r:id="rId32" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst15"/>
-    <hyperlink ref="A58" r:id="rId33" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst16"/>
-    <hyperlink ref="A59" r:id="rId34" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst17"/>
-    <hyperlink ref="A60" r:id="rId35" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst90"/>
-    <hyperlink ref="A61" r:id="rId36" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst67"/>
-    <hyperlink ref="A62" r:id="rId37" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst18"/>
-    <hyperlink ref="A63" r:id="rId38" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst97"/>
-    <hyperlink ref="A64" r:id="rId39" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst19"/>
-    <hyperlink ref="A65" r:id="rId40" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst20"/>
-    <hyperlink ref="A67" r:id="rId41" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst21"/>
-    <hyperlink ref="A68" r:id="rId42" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst68"/>
-    <hyperlink ref="A69" r:id="rId43" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst22"/>
-    <hyperlink ref="A70" r:id="rId44" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst91"/>
-    <hyperlink ref="A71" r:id="rId45" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst23"/>
-    <hyperlink ref="A72" r:id="rId46" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst24"/>
-    <hyperlink ref="A73" r:id="rId47" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst25"/>
-    <hyperlink ref="A74" r:id="rId48" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst26"/>
-    <hyperlink ref="A76" r:id="rId49" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst28"/>
-    <hyperlink ref="A77" r:id="rId50" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst29"/>
-    <hyperlink ref="A78" r:id="rId51" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst30"/>
-    <hyperlink ref="A80" r:id="rId52" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst31"/>
-    <hyperlink ref="A81" r:id="rId53" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst32"/>
-    <hyperlink ref="A82" r:id="rId54" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst70"/>
-    <hyperlink ref="A83" r:id="rId55" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst71"/>
-    <hyperlink ref="A84" r:id="rId56" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst33"/>
-    <hyperlink ref="A85" r:id="rId57" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst35"/>
-    <hyperlink ref="A86" r:id="rId58" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst34"/>
-    <hyperlink ref="A87" r:id="rId59" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst36"/>
-    <hyperlink ref="A88" r:id="rId60" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst37"/>
-    <hyperlink ref="A89" r:id="rId61" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst38"/>
-    <hyperlink ref="A90" r:id="rId62" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst39"/>
-    <hyperlink ref="A91" r:id="rId63" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst40"/>
-    <hyperlink ref="A92" r:id="rId64" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst41"/>
-    <hyperlink ref="A93" r:id="rId65" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst42"/>
-    <hyperlink ref="A94" r:id="rId66" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst43"/>
-    <hyperlink ref="A95" r:id="rId67" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst72"/>
-    <hyperlink ref="A96" r:id="rId68" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst92"/>
-    <hyperlink ref="A97" r:id="rId69" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst93"/>
-    <hyperlink ref="A98" r:id="rId70" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst44"/>
-    <hyperlink ref="A99" r:id="rId71" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst45"/>
-    <hyperlink ref="A100" r:id="rId72" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst73"/>
-    <hyperlink ref="A101" r:id="rId73" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst74"/>
-    <hyperlink ref="A102" r:id="rId74" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst48"/>
-    <hyperlink ref="A103" r:id="rId75" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst49"/>
-    <hyperlink ref="A104" r:id="rId76" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst50"/>
-    <hyperlink ref="A105" r:id="rId77" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst94"/>
-    <hyperlink ref="A106" r:id="rId78" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst95"/>
-    <hyperlink ref="A107" r:id="rId79" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst52"/>
-    <hyperlink ref="A108" r:id="rId80" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst53"/>
-    <hyperlink ref="A109" r:id="rId81" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst54"/>
-    <hyperlink ref="A110" r:id="rId82" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst55"/>
-    <hyperlink ref="A111" r:id="rId83" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst56"/>
-    <hyperlink ref="A112" r:id="rId84" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst57"/>
-    <hyperlink ref="A113" r:id="rId85" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst58"/>
-    <hyperlink ref="A114" r:id="rId86" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst59"/>
-    <hyperlink ref="A115" r:id="rId87" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst60"/>
-    <hyperlink ref="A116" r:id="rId88" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst61"/>
-    <hyperlink ref="A5" r:id="rId89" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new154"/>
-    <hyperlink ref="A7" r:id="rId90" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new3"/>
-    <hyperlink ref="A8" r:id="rId91" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new4"/>
-    <hyperlink ref="A9" r:id="rId92" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new5"/>
-    <hyperlink ref="A11" r:id="rId93" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new1"/>
-    <hyperlink ref="A21" r:id="rId94" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new6"/>
-    <hyperlink ref="A22" r:id="rId95" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new7"/>
-    <hyperlink ref="A23" r:id="rId96" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new8"/>
-    <hyperlink ref="A24" r:id="rId97" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new9"/>
-    <hyperlink ref="A18" r:id="rId98" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new12"/>
-    <hyperlink ref="A19" r:id="rId99" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new13"/>
-    <hyperlink ref="A25" r:id="rId100" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new14"/>
-    <hyperlink ref="A26" r:id="rId101" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new16"/>
-    <hyperlink ref="A27" r:id="rId102" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new18"/>
-    <hyperlink ref="A33" r:id="rId103" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new20"/>
-    <hyperlink ref="A34" r:id="rId104" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new21"/>
-    <hyperlink ref="A35" r:id="rId105" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new155"/>
-    <hyperlink ref="A36" r:id="rId106" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new156"/>
-    <hyperlink ref="A37" r:id="rId107" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new22"/>
+    <hyperlink ref="A28" r:id="rId11" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst84"/>
+    <hyperlink ref="A29" r:id="rId12" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst2"/>
+    <hyperlink ref="A30" r:id="rId13" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst3"/>
+    <hyperlink ref="A41" r:id="rId14" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst4"/>
+    <hyperlink ref="A42" r:id="rId15" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst5"/>
+    <hyperlink ref="A43" r:id="rId16" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst85"/>
+    <hyperlink ref="A44" r:id="rId17" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst86"/>
+    <hyperlink ref="A56" r:id="rId18" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst87"/>
+    <hyperlink ref="A57" r:id="rId19" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst88"/>
+    <hyperlink ref="A60" r:id="rId20" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst89"/>
+    <hyperlink ref="A61" r:id="rId21" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst6"/>
+    <hyperlink ref="A62" r:id="rId22" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst7"/>
+    <hyperlink ref="A63" r:id="rId23" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst8"/>
+    <hyperlink ref="A74" r:id="rId24" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst9"/>
+    <hyperlink ref="A75" r:id="rId25" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst10"/>
+    <hyperlink ref="A77" r:id="rId26" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst11"/>
+    <hyperlink ref="A79" r:id="rId27" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst12"/>
+    <hyperlink ref="A83" r:id="rId28" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst13"/>
+    <hyperlink ref="A85" r:id="rId29" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst66"/>
+    <hyperlink ref="A87" r:id="rId30" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst14"/>
+    <hyperlink ref="A89" r:id="rId31" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst96"/>
+    <hyperlink ref="A90" r:id="rId32" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst15"/>
+    <hyperlink ref="A91" r:id="rId33" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst16"/>
+    <hyperlink ref="A93" r:id="rId34" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst17"/>
+    <hyperlink ref="A97" r:id="rId35" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst90"/>
+    <hyperlink ref="A98" r:id="rId36" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst67"/>
+    <hyperlink ref="A101" r:id="rId37" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst18"/>
+    <hyperlink ref="A102" r:id="rId38" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst97"/>
+    <hyperlink ref="A103" r:id="rId39" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst19"/>
+    <hyperlink ref="A104" r:id="rId40" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst20"/>
+    <hyperlink ref="A106" r:id="rId41" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst21"/>
+    <hyperlink ref="A108" r:id="rId42" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst68"/>
+    <hyperlink ref="A109" r:id="rId43" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst22"/>
+    <hyperlink ref="A111" r:id="rId44" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst91"/>
+    <hyperlink ref="A114" r:id="rId45" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst23"/>
+    <hyperlink ref="A115" r:id="rId46" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst24"/>
+    <hyperlink ref="A116" r:id="rId47" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst25"/>
+    <hyperlink ref="A118" r:id="rId48" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst26"/>
+    <hyperlink ref="A122" r:id="rId49" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst28"/>
+    <hyperlink ref="A123" r:id="rId50" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst29"/>
+    <hyperlink ref="A124" r:id="rId51" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst30"/>
+    <hyperlink ref="A126" r:id="rId52" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst31"/>
+    <hyperlink ref="A128" r:id="rId53" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst32"/>
+    <hyperlink ref="A130" r:id="rId54" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst70"/>
+    <hyperlink ref="A132" r:id="rId55" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst71"/>
+    <hyperlink ref="A134" r:id="rId56" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst33"/>
+    <hyperlink ref="A135" r:id="rId57" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst35"/>
+    <hyperlink ref="A137" r:id="rId58" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst34"/>
+    <hyperlink ref="A138" r:id="rId59" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst36"/>
+    <hyperlink ref="A143" r:id="rId60" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst37"/>
+    <hyperlink ref="A149" r:id="rId61" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst39"/>
+    <hyperlink ref="A151" r:id="rId62" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst40"/>
+    <hyperlink ref="A152" r:id="rId63" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst41"/>
+    <hyperlink ref="A153" r:id="rId64" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst42"/>
+    <hyperlink ref="A156" r:id="rId65" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst43"/>
+    <hyperlink ref="A157" r:id="rId66" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst72"/>
+    <hyperlink ref="A159" r:id="rId67" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst92"/>
+    <hyperlink ref="A160" r:id="rId68" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst93"/>
+    <hyperlink ref="A161" r:id="rId69" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst44"/>
+    <hyperlink ref="A162" r:id="rId70" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst45"/>
+    <hyperlink ref="A164" r:id="rId71" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst73"/>
+    <hyperlink ref="A166" r:id="rId72" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst74"/>
+    <hyperlink ref="A168" r:id="rId73" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst48"/>
+    <hyperlink ref="A179" r:id="rId74" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst49"/>
+    <hyperlink ref="A180" r:id="rId75" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst50"/>
+    <hyperlink ref="A183" r:id="rId76" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst94"/>
+    <hyperlink ref="A184" r:id="rId77" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst95"/>
+    <hyperlink ref="A185" r:id="rId78" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst52"/>
+    <hyperlink ref="A186" r:id="rId79" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst53"/>
+    <hyperlink ref="A191" r:id="rId80" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst54"/>
+    <hyperlink ref="A192" r:id="rId81" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst55"/>
+    <hyperlink ref="A193" r:id="rId82" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst56"/>
+    <hyperlink ref="A195" r:id="rId83" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst57"/>
+    <hyperlink ref="A196" r:id="rId84" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst58"/>
+    <hyperlink ref="A198" r:id="rId85" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst59"/>
+    <hyperlink ref="A199" r:id="rId86" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst60"/>
+    <hyperlink ref="A201" r:id="rId87" display="http://money.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=300028&amp;typecode=cfst61"/>
+    <hyperlink ref="A5" r:id="rId88" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new154"/>
+    <hyperlink ref="A7" r:id="rId89" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new3"/>
+    <hyperlink ref="A8" r:id="rId90" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new4"/>
+    <hyperlink ref="A9" r:id="rId91" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new5"/>
+    <hyperlink ref="A11" r:id="rId92" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new1"/>
+    <hyperlink ref="A21" r:id="rId93" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new6"/>
+    <hyperlink ref="A22" r:id="rId94" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new7"/>
+    <hyperlink ref="A23" r:id="rId95" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new8"/>
+    <hyperlink ref="A24" r:id="rId96" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new9"/>
+    <hyperlink ref="A18" r:id="rId97" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new12"/>
+    <hyperlink ref="A19" r:id="rId98" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new13"/>
+    <hyperlink ref="A25" r:id="rId99" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new14"/>
+    <hyperlink ref="A26" r:id="rId100" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new16"/>
+    <hyperlink ref="A27" r:id="rId101" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new18"/>
+    <hyperlink ref="A32" r:id="rId102" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new20"/>
+    <hyperlink ref="A33" r:id="rId103" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new21"/>
+    <hyperlink ref="A34" r:id="rId104" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new155"/>
+    <hyperlink ref="A35" r:id="rId105" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new156"/>
+    <hyperlink ref="A36" r:id="rId106" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new22"/>
+    <hyperlink ref="A37" r:id="rId107" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new23"/>
+    <hyperlink ref="A38" r:id="rId108" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new24"/>
+    <hyperlink ref="A39" r:id="rId109" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new25"/>
+    <hyperlink ref="A40" r:id="rId110" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new26"/>
+    <hyperlink ref="A45" r:id="rId111" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new31"/>
+    <hyperlink ref="A46" r:id="rId112" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new32"/>
+    <hyperlink ref="A47" r:id="rId113" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new33"/>
+    <hyperlink ref="A48" r:id="rId114" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new34"/>
+    <hyperlink ref="A49" r:id="rId115" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new35"/>
+    <hyperlink ref="A50" r:id="rId116" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new36"/>
+    <hyperlink ref="A51" r:id="rId117" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new37"/>
+    <hyperlink ref="A52" r:id="rId118" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new38"/>
+    <hyperlink ref="A53" r:id="rId119" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new41"/>
+    <hyperlink ref="A54" r:id="rId120" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new39"/>
+    <hyperlink ref="A55" r:id="rId121" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new40"/>
+    <hyperlink ref="A58" r:id="rId122" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new43"/>
+    <hyperlink ref="A59" r:id="rId123" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new44"/>
+    <hyperlink ref="A64" r:id="rId124" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new47"/>
+    <hyperlink ref="A65" r:id="rId125" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new49"/>
+    <hyperlink ref="A66" r:id="rId126" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new50"/>
+    <hyperlink ref="A67" r:id="rId127" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new51"/>
+    <hyperlink ref="A68" r:id="rId128" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new159"/>
+    <hyperlink ref="A69" r:id="rId129" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new160"/>
+    <hyperlink ref="A70" r:id="rId130" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new54"/>
+    <hyperlink ref="A71" r:id="rId131" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new55"/>
+    <hyperlink ref="A72" r:id="rId132" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new56"/>
+    <hyperlink ref="A73" r:id="rId133" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new57"/>
+    <hyperlink ref="A78" r:id="rId134" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new60"/>
+    <hyperlink ref="A80" r:id="rId135" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new61"/>
+    <hyperlink ref="A81" r:id="rId136" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new62"/>
+    <hyperlink ref="A82" r:id="rId137" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new63"/>
+    <hyperlink ref="A84" r:id="rId138" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new64"/>
+    <hyperlink ref="A86" r:id="rId139" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new163"/>
+    <hyperlink ref="A88" r:id="rId140" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new67"/>
+    <hyperlink ref="A94" r:id="rId141" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new69"/>
+    <hyperlink ref="A95" r:id="rId142" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new70"/>
+    <hyperlink ref="A96" r:id="rId143" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new71"/>
+    <hyperlink ref="A99" r:id="rId144" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new73"/>
+    <hyperlink ref="A100" r:id="rId145" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new72"/>
+    <hyperlink ref="A92" r:id="rId146" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new74"/>
+    <hyperlink ref="A107" r:id="rId147" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new78"/>
+    <hyperlink ref="A110" r:id="rId148" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new79"/>
+    <hyperlink ref="A112" r:id="rId149" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new81"/>
+    <hyperlink ref="A113" r:id="rId150" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new82"/>
+    <hyperlink ref="A117" r:id="rId151" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new86"/>
+    <hyperlink ref="A119" r:id="rId152" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new91"/>
+    <hyperlink ref="A121" r:id="rId153" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new94"/>
+    <hyperlink ref="A127" r:id="rId154" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new98"/>
+    <hyperlink ref="A129" r:id="rId155" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new99"/>
+    <hyperlink ref="A131" r:id="rId156" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new100"/>
+    <hyperlink ref="A133" r:id="rId157" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new101"/>
+    <hyperlink ref="A136" r:id="rId158" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new103"/>
+    <hyperlink ref="A139" r:id="rId159" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new106"/>
+    <hyperlink ref="A140" r:id="rId160" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new104"/>
+    <hyperlink ref="A141" r:id="rId161" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new105"/>
+    <hyperlink ref="A142" r:id="rId162" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new107"/>
+    <hyperlink ref="A144" r:id="rId163" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new109"/>
+    <hyperlink ref="A145" r:id="rId164" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new165"/>
+    <hyperlink ref="A146" r:id="rId165" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new112"/>
+    <hyperlink ref="A147" r:id="rId166" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new113"/>
+    <hyperlink ref="A150" r:id="rId167" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new166"/>
+    <hyperlink ref="A154" r:id="rId168" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new115"/>
+    <hyperlink ref="A155" r:id="rId169" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new168"/>
+    <hyperlink ref="A163" r:id="rId170" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new119"/>
+    <hyperlink ref="A158" r:id="rId171" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new120"/>
+    <hyperlink ref="A169" r:id="rId172" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new121"/>
+    <hyperlink ref="A170" r:id="rId173" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new122"/>
+    <hyperlink ref="A171" r:id="rId174" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new123"/>
+    <hyperlink ref="A172" r:id="rId175" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new170"/>
+    <hyperlink ref="A173" r:id="rId176" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new171"/>
+    <hyperlink ref="A174" r:id="rId177" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new172"/>
+    <hyperlink ref="A175" r:id="rId178" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new173"/>
+    <hyperlink ref="A176" r:id="rId179" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new174"/>
+    <hyperlink ref="A177" r:id="rId180" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new175"/>
+    <hyperlink ref="A165" r:id="rId181" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new125"/>
+    <hyperlink ref="A167" r:id="rId182" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new126"/>
+    <hyperlink ref="A178" r:id="rId183" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new127"/>
+    <hyperlink ref="A181" r:id="rId184" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new178"/>
+    <hyperlink ref="A182" r:id="rId185" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new179"/>
+    <hyperlink ref="A187" r:id="rId186" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new130"/>
+    <hyperlink ref="A188" r:id="rId187" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new131"/>
+    <hyperlink ref="A189" r:id="rId188" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new132"/>
+    <hyperlink ref="A190" r:id="rId189" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new133"/>
+    <hyperlink ref="A194" r:id="rId190" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new137"/>
+    <hyperlink ref="A197" r:id="rId191" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new149"/>
+    <hyperlink ref="A200" r:id="rId192" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new152"/>
+    <hyperlink ref="A202" r:id="rId193" display="http://vip.stock.finance.sina.com.cn/corp/view/vFD_FinanceSummaryHistory.php?stockid=000001&amp;typecode=ficfst_new150"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11719,7 +12929,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -12049,7 +13259,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -12060,7 +13270,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -12221,14 +13431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
@@ -12270,7 +13480,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -12292,7 +13502,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -12391,7 +13601,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -12424,7 +13634,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -12435,7 +13645,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -12468,7 +13678,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -12512,7 +13722,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -12523,7 +13733,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -12534,7 +13744,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -12545,7 +13755,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -12556,7 +13766,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -12567,7 +13777,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -12578,7 +13788,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -12589,7 +13799,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -12633,7 +13843,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -12776,7 +13986,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>165</v>
       </c>
@@ -12794,17 +14004,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
